--- a/DateBase/orders/Nhat 48_2026-1-5.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-5.xlsx
@@ -616,6 +616,9 @@
       <c r="C21" t="str">
         <v>500_千鸟飞燕 粉_larkspur pink_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -677,7 +680,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>044352352515584066151230567045661035100</v>
+        <v>044352352515584066151230567045661035105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2026-1-5.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-5.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -511,7 +511,7 @@
         <v>756_雪花松_undefined_undefined_1bunch</v>
       </c>
       <c r="F9" t="str">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" xml:space="preserve">
@@ -620,9 +620,25 @@
         <v>5</v>
       </c>
     </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>756_雪花松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>7</v>
+      </c>
+      <c r="C23" t="str">
+        <v>370_水腊叶_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L23"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -680,7 +696,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>044352352515584066151230567045661035105</v>
+        <v>04435235251558356615123056704566103510550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2026-1-5.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-5.xlsx
@@ -635,6 +635,9 @@
       <c r="C23" t="str">
         <v>370_水腊叶_undefined_undefined_1bunch</v>
       </c>
+      <c r="F23" t="str">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -696,7 +699,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>04435235251558356615123056704566103510550</v>
+        <v>04435235251558356615123056704566103510553</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2026-1-5.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-5.xlsx
@@ -636,7 +636,7 @@
         <v>370_水腊叶_undefined_undefined_1bunch</v>
       </c>
       <c r="F23" t="str">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -699,7 +699,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>04435235251558356615123056704566103510553</v>
+        <v>044352352515583566151230567045661035105533</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2026-1-5.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-5.xlsx
@@ -701,6 +701,9 @@
       <c r="G2" t="str">
         <v>044352352515583566151230567045661035105533</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
